--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.240900340604718</v>
+        <v>0.9040748851485086</v>
       </c>
       <c r="D2" t="n">
-        <v>11608748.93180855</v>
+        <v>1557358.170258267</v>
       </c>
       <c r="E2" t="n">
-        <v>3407.161418513739</v>
+        <v>1247.941573255041</v>
       </c>
       <c r="F2" t="n">
-        <v>2724.696481231691</v>
+        <v>822.0702927179702</v>
       </c>
       <c r="G2" t="n">
-        <v>4430542800792350</v>
+        <v>0.437571462660277</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5332527184948246</v>
+        <v>0.9599677548029431</v>
       </c>
       <c r="D3" t="n">
-        <v>7137866.469225065</v>
+        <v>649929.3144234334</v>
       </c>
       <c r="E3" t="n">
-        <v>2671.678586436824</v>
+        <v>806.1819363043514</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.668891360771</v>
+        <v>400.8446421950315</v>
       </c>
       <c r="G3" t="n">
-        <v>3960479205122722</v>
+        <v>0.1130639482868977</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6754025929383515</v>
+        <v>0.9524841413354613</v>
       </c>
       <c r="D4" t="n">
-        <v>4963998.805501452</v>
+        <v>771426.8658694846</v>
       </c>
       <c r="E4" t="n">
-        <v>2228.003322596592</v>
+        <v>878.3090947209215</v>
       </c>
       <c r="F4" t="n">
-        <v>1192.392606794439</v>
+        <v>435.6455320726733</v>
       </c>
       <c r="G4" t="n">
-        <v>3255702060007599</v>
+        <v>0.1094570516174347</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7859905096761876</v>
+        <v>0.9821133439625952</v>
       </c>
       <c r="D5" t="n">
-        <v>3272801.418686675</v>
+        <v>290392.4583418807</v>
       </c>
       <c r="E5" t="n">
-        <v>1809.088560211101</v>
+        <v>538.8807459372442</v>
       </c>
       <c r="F5" t="n">
-        <v>860.723628625541</v>
+        <v>274.6806620365182</v>
       </c>
       <c r="G5" t="n">
-        <v>3159898882448988</v>
+        <v>0.07076930797172286</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7767272243823335</v>
+        <v>0.9821731157673121</v>
       </c>
       <c r="D6" t="n">
-        <v>3414462.861857037</v>
+        <v>289422.0544119907</v>
       </c>
       <c r="E6" t="n">
-        <v>1847.826523745407</v>
+        <v>537.9796040854994</v>
       </c>
       <c r="F6" t="n">
-        <v>872.558016027041</v>
+        <v>276.939906137627</v>
       </c>
       <c r="G6" t="n">
-        <v>3851475897196652</v>
+        <v>0.07359096544436548</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7310507388169221</v>
+        <v>0.9759246594843534</v>
       </c>
       <c r="D7" t="n">
-        <v>4112983.598170694</v>
+        <v>390866.6495926457</v>
       </c>
       <c r="E7" t="n">
-        <v>2028.049209997305</v>
+        <v>625.1932897853636</v>
       </c>
       <c r="F7" t="n">
-        <v>1096.928307248379</v>
+        <v>322.883120725276</v>
       </c>
       <c r="G7" t="n">
-        <v>3041619946939158</v>
+        <v>0.08876225634328097</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5735652267479721</v>
+        <v>0.9658102259828125</v>
       </c>
       <c r="D8" t="n">
-        <v>6521375.892091818</v>
+        <v>555075.946350279</v>
       </c>
       <c r="E8" t="n">
-        <v>2553.698473213276</v>
+        <v>745.0341913967969</v>
       </c>
       <c r="F8" t="n">
-        <v>1701.372042183068</v>
+        <v>513.6313806061189</v>
       </c>
       <c r="G8" t="n">
-        <v>6450864324938363</v>
+        <v>0.2503237323057665</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9040748851485086</v>
+        <v>0.9085909167542987</v>
       </c>
       <c r="D2" t="n">
-        <v>1557358.170258267</v>
+        <v>1404287.212095075</v>
       </c>
       <c r="E2" t="n">
-        <v>1247.941573255041</v>
+        <v>1185.026249538412</v>
       </c>
       <c r="F2" t="n">
-        <v>822.0702927179702</v>
+        <v>796.3903730471892</v>
       </c>
       <c r="G2" t="n">
-        <v>0.437571462660277</v>
+        <v>0.4426531526489699</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9599677548029431</v>
+        <v>0.9562354051865986</v>
       </c>
       <c r="D3" t="n">
-        <v>649929.3144234334</v>
+        <v>672340.8512235817</v>
       </c>
       <c r="E3" t="n">
-        <v>806.1819363043514</v>
+        <v>819.9639328797223</v>
       </c>
       <c r="F3" t="n">
-        <v>400.8446421950315</v>
+        <v>391.7746570263255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1130639482868977</v>
+        <v>0.1104971698303797</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9524841413354613</v>
+        <v>0.9554353559330949</v>
       </c>
       <c r="D4" t="n">
-        <v>771426.8658694846</v>
+        <v>684631.7406609196</v>
       </c>
       <c r="E4" t="n">
-        <v>878.3090947209215</v>
+        <v>827.4247643507654</v>
       </c>
       <c r="F4" t="n">
-        <v>435.6455320726733</v>
+        <v>439.7685854653319</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1094570516174347</v>
+        <v>0.1206906508964245</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9821133439625952</v>
+        <v>0.9815914795199632</v>
       </c>
       <c r="D5" t="n">
-        <v>290392.4583418807</v>
+        <v>282803.9510495987</v>
       </c>
       <c r="E5" t="n">
-        <v>538.8807459372442</v>
+        <v>531.7931468621974</v>
       </c>
       <c r="F5" t="n">
-        <v>274.6806620365182</v>
+        <v>270.1267558471473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07076930797172286</v>
+        <v>0.07048792375429497</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9821731157673121</v>
+        <v>0.9829774424151519</v>
       </c>
       <c r="D6" t="n">
-        <v>289422.0544119907</v>
+        <v>261511.8660505587</v>
       </c>
       <c r="E6" t="n">
-        <v>537.9796040854994</v>
+        <v>511.3823090903309</v>
       </c>
       <c r="F6" t="n">
-        <v>276.939906137627</v>
+        <v>263.9323708785655</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07359096544436548</v>
+        <v>0.07035621818574513</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9759246594843534</v>
+        <v>0.9784192770731999</v>
       </c>
       <c r="D7" t="n">
-        <v>390866.6495926457</v>
+        <v>331537.4376134287</v>
       </c>
       <c r="E7" t="n">
-        <v>625.1932897853636</v>
+        <v>575.7928773555893</v>
       </c>
       <c r="F7" t="n">
-        <v>322.883120725276</v>
+        <v>309.4223596857882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08876225634328097</v>
+        <v>0.09413805533476534</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9658102259828125</v>
+        <v>0.9774653775607607</v>
       </c>
       <c r="D8" t="n">
-        <v>555075.946350279</v>
+        <v>346191.8771874636</v>
       </c>
       <c r="E8" t="n">
-        <v>745.0341913967969</v>
+        <v>588.3807246906238</v>
       </c>
       <c r="F8" t="n">
-        <v>513.6313806061189</v>
+        <v>339.5917201842751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2503237323057665</v>
+        <v>0.1120316488726503</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9085909167542987</v>
+        <v>0.9007992734150422</v>
       </c>
       <c r="D2" t="n">
-        <v>1404287.212095075</v>
+        <v>1592676.245928357</v>
       </c>
       <c r="E2" t="n">
-        <v>1185.026249538412</v>
+        <v>1262.012775659722</v>
       </c>
       <c r="F2" t="n">
-        <v>796.3903730471892</v>
+        <v>820.8314352013583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4426531526489699</v>
+        <v>0.434870620064634</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9562354051865986</v>
+        <v>0.9557531538107251</v>
       </c>
       <c r="D3" t="n">
-        <v>672340.8512235817</v>
+        <v>710386.9428068224</v>
       </c>
       <c r="E3" t="n">
-        <v>819.9639328797223</v>
+        <v>842.8445543555599</v>
       </c>
       <c r="F3" t="n">
-        <v>391.7746570263255</v>
+        <v>406.6482202447164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1104971698303797</v>
+        <v>0.11311280279881</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9554353559330949</v>
+        <v>0.9602673466281921</v>
       </c>
       <c r="D4" t="n">
-        <v>684631.7406609196</v>
+        <v>637911.1866563606</v>
       </c>
       <c r="E4" t="n">
-        <v>827.4247643507654</v>
+        <v>798.6934246983386</v>
       </c>
       <c r="F4" t="n">
-        <v>439.7685854653319</v>
+        <v>438.7444573779662</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1206906508964245</v>
+        <v>0.1254996070529405</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9815914795199632</v>
+        <v>0.981202859910593</v>
       </c>
       <c r="D5" t="n">
-        <v>282803.9510495987</v>
+        <v>301789.7100395415</v>
       </c>
       <c r="E5" t="n">
-        <v>531.7931468621974</v>
+        <v>549.353902361257</v>
       </c>
       <c r="F5" t="n">
-        <v>270.1267558471473</v>
+        <v>274.0751989835267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07048792375429497</v>
+        <v>0.06801154252413685</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9829774424151519</v>
+        <v>0.9808709916112536</v>
       </c>
       <c r="D6" t="n">
-        <v>261511.8660505587</v>
+        <v>307117.884291187</v>
       </c>
       <c r="E6" t="n">
-        <v>511.3823090903309</v>
+        <v>554.1821760857949</v>
       </c>
       <c r="F6" t="n">
-        <v>263.9323708785655</v>
+        <v>270.1861757215501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07035621818574513</v>
+        <v>0.06541838138078189</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9784192770731999</v>
+        <v>0.9776175877457847</v>
       </c>
       <c r="D7" t="n">
-        <v>331537.4376134287</v>
+        <v>359351.564762329</v>
       </c>
       <c r="E7" t="n">
-        <v>575.7928773555893</v>
+        <v>599.4593937560149</v>
       </c>
       <c r="F7" t="n">
-        <v>309.4223596857882</v>
+        <v>318.0473490620614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09413805533476534</v>
+        <v>0.09098810339732286</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9774653775607607</v>
+        <v>0.9723619202467083</v>
       </c>
       <c r="D8" t="n">
-        <v>346191.8771874636</v>
+        <v>443731.7610616764</v>
       </c>
       <c r="E8" t="n">
-        <v>588.3807246906238</v>
+        <v>666.1319396798779</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5917201842751</v>
+        <v>433.1961704694404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1120316488726503</v>
+        <v>0.1805299874145258</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9085909167542987</v>
+        <v>0.9022285165660638</v>
       </c>
       <c r="D2" t="n">
-        <v>1404287.212095075</v>
+        <v>1567380.082237158</v>
       </c>
       <c r="E2" t="n">
-        <v>1185.026249538412</v>
+        <v>1251.950511097447</v>
       </c>
       <c r="F2" t="n">
-        <v>796.3903730471892</v>
+        <v>808.5960313687351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4426531526489699</v>
+        <v>0.419342489824613</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9562354051865986</v>
+        <v>0.9509447274214927</v>
       </c>
       <c r="D3" t="n">
-        <v>672340.8512235817</v>
+        <v>786407.7997775306</v>
       </c>
       <c r="E3" t="n">
-        <v>819.9639328797223</v>
+        <v>886.7963688342046</v>
       </c>
       <c r="F3" t="n">
-        <v>391.7746570263255</v>
+        <v>421.6457174638487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1104971698303797</v>
+        <v>0.1150866456657527</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9554353559330949</v>
+        <v>0.9602309778394038</v>
       </c>
       <c r="D4" t="n">
-        <v>684631.7406609196</v>
+        <v>637539.4034671161</v>
       </c>
       <c r="E4" t="n">
-        <v>827.4247643507654</v>
+        <v>798.4606461605456</v>
       </c>
       <c r="F4" t="n">
-        <v>439.7685854653319</v>
+        <v>428.5298000221808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1206906508964245</v>
+        <v>0.1162490636065167</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9815914795199632</v>
+        <v>0.9796780128047003</v>
       </c>
       <c r="D5" t="n">
-        <v>282803.9510495987</v>
+        <v>325782.9056354016</v>
       </c>
       <c r="E5" t="n">
-        <v>531.7931468621974</v>
+        <v>570.7739531858489</v>
       </c>
       <c r="F5" t="n">
-        <v>270.1267558471473</v>
+        <v>278.5198182100496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07048792375429497</v>
+        <v>0.06649046156857015</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9829774424151519</v>
+        <v>0.9807914039581893</v>
       </c>
       <c r="D6" t="n">
-        <v>261511.8660505587</v>
+        <v>307934.0702037818</v>
       </c>
       <c r="E6" t="n">
-        <v>511.3823090903309</v>
+        <v>554.9180752181188</v>
       </c>
       <c r="F6" t="n">
-        <v>263.9323708785655</v>
+        <v>284.1876959300369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07035621818574513</v>
+        <v>0.07538644274443188</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9784192770731999</v>
+        <v>0.9744326434005663</v>
       </c>
       <c r="D7" t="n">
-        <v>331537.4376134287</v>
+        <v>409871.7139388064</v>
       </c>
       <c r="E7" t="n">
-        <v>575.7928773555893</v>
+        <v>640.212241322209</v>
       </c>
       <c r="F7" t="n">
-        <v>309.4223596857882</v>
+        <v>325.8250850328128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09413805533476534</v>
+        <v>0.09006429925956252</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9774653775607607</v>
+        <v>0.9753317332311658</v>
       </c>
       <c r="D8" t="n">
-        <v>346191.8771874636</v>
+        <v>395458.3549190896</v>
       </c>
       <c r="E8" t="n">
-        <v>588.3807246906238</v>
+        <v>628.8547963712208</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5917201842751</v>
+        <v>360.0893533603586</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1120316488726503</v>
+        <v>0.1210643723634061</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9007992734150422</v>
+        <v>0.9022285165660638</v>
       </c>
       <c r="D2" t="n">
-        <v>1592676.245928357</v>
+        <v>1567380.082237158</v>
       </c>
       <c r="E2" t="n">
-        <v>1262.012775659722</v>
+        <v>1251.950511097447</v>
       </c>
       <c r="F2" t="n">
-        <v>820.8314352013583</v>
+        <v>808.5960313687351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.434870620064634</v>
+        <v>0.419342489824613</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9557531538107251</v>
+        <v>0.9509447274214927</v>
       </c>
       <c r="D3" t="n">
-        <v>710386.9428068224</v>
+        <v>786407.7997775306</v>
       </c>
       <c r="E3" t="n">
-        <v>842.8445543555599</v>
+        <v>886.7963688342046</v>
       </c>
       <c r="F3" t="n">
-        <v>406.6482202447164</v>
+        <v>421.6457174638487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11311280279881</v>
+        <v>0.1150866456657527</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9602673466281921</v>
+        <v>0.9602309778394038</v>
       </c>
       <c r="D4" t="n">
-        <v>637911.1866563606</v>
+        <v>637539.4034671161</v>
       </c>
       <c r="E4" t="n">
-        <v>798.6934246983386</v>
+        <v>798.4606461605456</v>
       </c>
       <c r="F4" t="n">
-        <v>438.7444573779662</v>
+        <v>428.5298000221808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1254996070529405</v>
+        <v>0.1162490636065167</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.981202859910593</v>
+        <v>0.9796780128047003</v>
       </c>
       <c r="D5" t="n">
-        <v>301789.7100395415</v>
+        <v>325782.9056354016</v>
       </c>
       <c r="E5" t="n">
-        <v>549.353902361257</v>
+        <v>570.7739531858489</v>
       </c>
       <c r="F5" t="n">
-        <v>274.0751989835267</v>
+        <v>278.5198182100496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06801154252413685</v>
+        <v>0.06649046156857015</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9808709916112536</v>
+        <v>0.9807914039581893</v>
       </c>
       <c r="D6" t="n">
-        <v>307117.884291187</v>
+        <v>307934.0702037818</v>
       </c>
       <c r="E6" t="n">
-        <v>554.1821760857949</v>
+        <v>554.9180752181188</v>
       </c>
       <c r="F6" t="n">
-        <v>270.1861757215501</v>
+        <v>284.1876959300369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06541838138078189</v>
+        <v>0.07538644274443188</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9776175877457847</v>
+        <v>0.9744326434005663</v>
       </c>
       <c r="D7" t="n">
-        <v>359351.564762329</v>
+        <v>409871.7139388064</v>
       </c>
       <c r="E7" t="n">
-        <v>599.4593937560149</v>
+        <v>640.212241322209</v>
       </c>
       <c r="F7" t="n">
-        <v>318.0473490620614</v>
+        <v>325.8250850328128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09098810339732286</v>
+        <v>0.09006429925956252</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9723619202467083</v>
+        <v>0.9753317332311658</v>
       </c>
       <c r="D8" t="n">
-        <v>443731.7610616764</v>
+        <v>395458.3549190896</v>
       </c>
       <c r="E8" t="n">
-        <v>666.1319396798779</v>
+        <v>628.8547963712208</v>
       </c>
       <c r="F8" t="n">
-        <v>433.1961704694404</v>
+        <v>360.0893533603586</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1805299874145258</v>
+        <v>0.1210643723634061</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Regression_Results.xlsx
+++ b/Tables/Regression_Results.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9022285165660638</v>
+        <v>0.9007992734150422</v>
       </c>
       <c r="D2" t="n">
-        <v>1567380.082237158</v>
+        <v>1592676.245928357</v>
       </c>
       <c r="E2" t="n">
-        <v>1251.950511097447</v>
+        <v>1262.012775659722</v>
       </c>
       <c r="F2" t="n">
-        <v>808.5960313687351</v>
+        <v>820.8314352013583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.419342489824613</v>
+        <v>0.434870620064634</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9509447274214927</v>
+        <v>0.9557531538107251</v>
       </c>
       <c r="D3" t="n">
-        <v>786407.7997775306</v>
+        <v>710386.9428068224</v>
       </c>
       <c r="E3" t="n">
-        <v>886.7963688342046</v>
+        <v>842.8445543555599</v>
       </c>
       <c r="F3" t="n">
-        <v>421.6457174638487</v>
+        <v>406.6482202447164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1150866456657527</v>
+        <v>0.11311280279881</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9602309778394038</v>
+        <v>0.9602673466281921</v>
       </c>
       <c r="D4" t="n">
-        <v>637539.4034671161</v>
+        <v>637911.1866563606</v>
       </c>
       <c r="E4" t="n">
-        <v>798.4606461605456</v>
+        <v>798.6934246983386</v>
       </c>
       <c r="F4" t="n">
-        <v>428.5298000221808</v>
+        <v>438.7444573779662</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1162490636065167</v>
+        <v>0.1254996070529405</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9796780128047003</v>
+        <v>0.981202859910593</v>
       </c>
       <c r="D5" t="n">
-        <v>325782.9056354016</v>
+        <v>301789.7100395415</v>
       </c>
       <c r="E5" t="n">
-        <v>570.7739531858489</v>
+        <v>549.353902361257</v>
       </c>
       <c r="F5" t="n">
-        <v>278.5198182100496</v>
+        <v>274.0751989835267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06649046156857015</v>
+        <v>0.06801154252413685</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9807914039581893</v>
+        <v>0.9808709916112536</v>
       </c>
       <c r="D6" t="n">
-        <v>307934.0702037818</v>
+        <v>307117.884291187</v>
       </c>
       <c r="E6" t="n">
-        <v>554.9180752181188</v>
+        <v>554.1821760857949</v>
       </c>
       <c r="F6" t="n">
-        <v>284.1876959300369</v>
+        <v>270.1861757215501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07538644274443188</v>
+        <v>0.06541838138078189</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9744326434005663</v>
+        <v>0.9776175877457847</v>
       </c>
       <c r="D7" t="n">
-        <v>409871.7139388064</v>
+        <v>359351.564762329</v>
       </c>
       <c r="E7" t="n">
-        <v>640.212241322209</v>
+        <v>599.4593937560149</v>
       </c>
       <c r="F7" t="n">
-        <v>325.8250850328128</v>
+        <v>318.0473490620614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09006429925956252</v>
+        <v>0.09098810339732286</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9753317332311658</v>
+        <v>0.9723619202467083</v>
       </c>
       <c r="D8" t="n">
-        <v>395458.3549190896</v>
+        <v>443731.7610616764</v>
       </c>
       <c r="E8" t="n">
-        <v>628.8547963712208</v>
+        <v>666.1319396798779</v>
       </c>
       <c r="F8" t="n">
-        <v>360.0893533603586</v>
+        <v>433.1961704694404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1210643723634061</v>
+        <v>0.1805299874145258</v>
       </c>
     </row>
   </sheetData>
